--- a/cheklist.xlsx
+++ b/cheklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Logger</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Transaction</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Denimonation</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,16 +454,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -468,16 +477,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -485,16 +500,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,16 +523,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,16 +546,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,6 +572,24 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
